--- a/data/trans_orig/P1_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>65055</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50847</v>
+        <v>51035</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82880</v>
+        <v>82733</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1113684043181015</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08704629479365335</v>
+        <v>0.0873673236321019</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1418830643883134</v>
+        <v>0.1416318944517166</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>116</v>
@@ -765,19 +765,19 @@
         <v>122013</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101544</v>
+        <v>102653</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>143010</v>
+        <v>144741</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1322872044241713</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1100947051668117</v>
+        <v>0.1112976145163501</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1550520117397439</v>
+        <v>0.1569291806784802</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>177</v>
@@ -786,19 +786,19 @@
         <v>187068</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>159416</v>
+        <v>159616</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>214080</v>
+        <v>215639</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1241758576991752</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1058204048654708</v>
+        <v>0.1059534385878264</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1421069995083369</v>
+        <v>0.1431418249247125</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>519086</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>501261</v>
+        <v>501408</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>533294</v>
+        <v>533106</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8886315956818984</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8581169356116868</v>
+        <v>0.8583681055482832</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9129537052063468</v>
+        <v>0.912632676367898</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>769</v>
@@ -836,19 +836,19 @@
         <v>800320</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>779323</v>
+        <v>777592</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>820789</v>
+        <v>819680</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8677127955758287</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8449479882602559</v>
+        <v>0.8430708193215195</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8899052948331879</v>
+        <v>0.8887023854836499</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1282</v>
@@ -857,19 +857,19 @@
         <v>1319406</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1292394</v>
+        <v>1290835</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1347058</v>
+        <v>1346858</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8758241423008248</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8578930004916632</v>
+        <v>0.8568581750752873</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8941795951345294</v>
+        <v>0.8940465614121734</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>65994</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51557</v>
+        <v>52002</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>81885</v>
+        <v>83091</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06122453195562607</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04783159160384159</v>
+        <v>0.0482439665122153</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07596778855080129</v>
+        <v>0.07708684900335151</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -982,19 +982,19 @@
         <v>91812</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>75291</v>
+        <v>75646</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>113258</v>
+        <v>112372</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08681685570253099</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07119505531277008</v>
+        <v>0.07153024117732264</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1070962336127941</v>
+        <v>0.1062580499818346</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>155</v>
@@ -1003,19 +1003,19 @@
         <v>157806</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>133705</v>
+        <v>134284</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>181896</v>
+        <v>184388</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07389871427491475</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0626126022740779</v>
+        <v>0.06288366159485814</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08518005469050353</v>
+        <v>0.08634678293012675</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1011900</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>996009</v>
+        <v>994803</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1026337</v>
+        <v>1025892</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.938775468044374</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9240322114491988</v>
+        <v>0.9229131509966485</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9521684083961584</v>
+        <v>0.9517560334877847</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>939</v>
@@ -1053,19 +1053,19 @@
         <v>965726</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>944280</v>
+        <v>945166</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>982247</v>
+        <v>981892</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9131831442974691</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8929037663872061</v>
+        <v>0.8937419500181653</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9288049446872298</v>
+        <v>0.9284697588226772</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1928</v>
@@ -1074,19 +1074,19 @@
         <v>1977626</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1953536</v>
+        <v>1951044</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2001727</v>
+        <v>2001148</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9261012857250852</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9148199453094963</v>
+        <v>0.9136532170698732</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9373873977259221</v>
+        <v>0.9371163384051419</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>68773</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54486</v>
+        <v>54373</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90147</v>
+        <v>89184</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06131687577578112</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04857863590631984</v>
+        <v>0.04847810615589922</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08037426674114488</v>
+        <v>0.07951498467592667</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -1199,19 +1199,19 @@
         <v>57331</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43443</v>
+        <v>43175</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73263</v>
+        <v>72890</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05768096855528395</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04370837191572254</v>
+        <v>0.04343775200972192</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07370935598192535</v>
+        <v>0.07333410737781565</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>117</v>
@@ -1220,19 +1220,19 @@
         <v>126104</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>105160</v>
+        <v>103772</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>151001</v>
+        <v>148705</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05960862037081743</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04970835236759524</v>
+        <v>0.04905232404944905</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07137712329869467</v>
+        <v>0.07029210477448078</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1052821</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1031447</v>
+        <v>1032410</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1067108</v>
+        <v>1067221</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9386831242242188</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9196257332588551</v>
+        <v>0.9204850153240733</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9514213640936803</v>
+        <v>0.951521893844101</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>928</v>
@@ -1270,19 +1270,19 @@
         <v>936609</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>920677</v>
+        <v>921050</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>950497</v>
+        <v>950765</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9423190314447161</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9262906440180751</v>
+        <v>0.926665892622184</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9562916280842776</v>
+        <v>0.9565622479902779</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1968</v>
@@ -1291,19 +1291,19 @@
         <v>1989430</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1964533</v>
+        <v>1966829</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2010374</v>
+        <v>2011762</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9403913796291826</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9286228767013054</v>
+        <v>0.9297078952255192</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9502916476324048</v>
+        <v>0.9509476759505513</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>34380</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24293</v>
+        <v>23503</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47118</v>
+        <v>47572</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07687814973024089</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05432261429974355</v>
+        <v>0.05255575643525667</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1053627502625814</v>
+        <v>0.106377120973822</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1416,19 +1416,19 @@
         <v>21205</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13635</v>
+        <v>13277</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32310</v>
+        <v>32050</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06215537978622115</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03996607969581888</v>
+        <v>0.03891655533254899</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09470677521416719</v>
+        <v>0.09394482680915928</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>54</v>
@@ -1437,19 +1437,19 @@
         <v>55585</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42782</v>
+        <v>41426</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72578</v>
+        <v>71046</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07050693991973156</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05426676792513911</v>
+        <v>0.05254724915701518</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09206214522391494</v>
+        <v>0.09011851863387853</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>412820</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>400082</v>
+        <v>399628</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>422907</v>
+        <v>423697</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9231218502697591</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8946372497374186</v>
+        <v>0.8936228790261773</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9456773857002565</v>
+        <v>0.9474442435647432</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>318</v>
@@ -1487,19 +1487,19 @@
         <v>319953</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>308848</v>
+        <v>309108</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>327523</v>
+        <v>327881</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9378446202137788</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.905293224785833</v>
+        <v>0.9060551731908407</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9600339203041811</v>
+        <v>0.9610834446674511</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>721</v>
@@ -1508,19 +1508,19 @@
         <v>732773</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>715780</v>
+        <v>717312</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>745576</v>
+        <v>746932</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9294930600802684</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9079378547760849</v>
+        <v>0.9098814813661213</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9457332320748608</v>
+        <v>0.9474527508429849</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>234201</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>205849</v>
+        <v>206424</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>268910</v>
+        <v>268823</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07248943410502076</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06371383332942551</v>
+        <v>0.06389209162760105</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08323264114958472</v>
+        <v>0.08320545454166178</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>280</v>
@@ -1633,19 +1633,19 @@
         <v>292361</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>262750</v>
+        <v>260812</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>323686</v>
+        <v>329791</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08819425354895591</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07926173822086868</v>
+        <v>0.07867706239097813</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09764387286029727</v>
+        <v>0.09948542922523362</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>503</v>
@@ -1654,19 +1654,19 @@
         <v>526562</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>486129</v>
+        <v>487676</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>573051</v>
+        <v>574832</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08044277850537618</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07426587675194465</v>
+        <v>0.07450218102692589</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08754488521647967</v>
+        <v>0.08781697612435979</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2996628</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2961919</v>
+        <v>2962006</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3024980</v>
+        <v>3024405</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9275105658949793</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9167673588504158</v>
+        <v>0.9167945454583384</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9362861666705746</v>
+        <v>0.936107908372399</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2954</v>
@@ -1704,19 +1704,19 @@
         <v>3022608</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2991283</v>
+        <v>2985178</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3052219</v>
+        <v>3054157</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9118057464510441</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.902356127139703</v>
+        <v>0.9005145707747664</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9207382617791314</v>
+        <v>0.9213229376090218</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5899</v>
@@ -1725,19 +1725,19 @@
         <v>6019236</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5972747</v>
+        <v>5970966</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6059669</v>
+        <v>6058122</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9195572214946238</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9124551147835201</v>
+        <v>0.9121830238756401</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9257341232480553</v>
+        <v>0.925497818973074</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>90121</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74674</v>
+        <v>71914</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>111496</v>
+        <v>108569</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08632809662744252</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07153129045487951</v>
+        <v>0.06888753694466287</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1068039123732052</v>
+        <v>0.1040002457466778</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>93</v>
@@ -2090,19 +2090,19 @@
         <v>100675</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>82734</v>
+        <v>81645</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>122867</v>
+        <v>122463</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08989434556629748</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07387452524618954</v>
+        <v>0.0729018611447059</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1097095906876862</v>
+        <v>0.1093489300196929</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>178</v>
@@ -2111,19 +2111,19 @@
         <v>190796</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>165185</v>
+        <v>166819</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>218098</v>
+        <v>220293</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08817384334456392</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07633784286066682</v>
+        <v>0.0770931149058212</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1007909429116585</v>
+        <v>0.101805223999962</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>953814</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>932439</v>
+        <v>935366</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>969261</v>
+        <v>972021</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9136719033725574</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8931960876267948</v>
+        <v>0.8959997542533221</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9284687095451205</v>
+        <v>0.9311124630553371</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>938</v>
@@ -2161,19 +2161,19 @@
         <v>1019253</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>997061</v>
+        <v>997465</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1037194</v>
+        <v>1038283</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9101056544337025</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8902904093123141</v>
+        <v>0.8906510699803074</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9261254747538107</v>
+        <v>0.9270981388552941</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1831</v>
@@ -2182,19 +2182,19 @@
         <v>1973067</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1945765</v>
+        <v>1943570</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1998678</v>
+        <v>1997044</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9118261566554361</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8992090570883414</v>
+        <v>0.8981947760000381</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9236621571393332</v>
+        <v>0.9229068850941785</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>61684</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45153</v>
+        <v>47926</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78450</v>
+        <v>81421</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0631310419561284</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04621200917662709</v>
+        <v>0.04905014047027526</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08029132746015526</v>
+        <v>0.08333159170927625</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>104</v>
@@ -2307,19 +2307,19 @@
         <v>111159</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>92816</v>
+        <v>91623</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>130939</v>
+        <v>132170</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1015838455595745</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08482042544534646</v>
+        <v>0.08373076948657093</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1196595478476254</v>
+        <v>0.1207844502827318</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>159</v>
@@ -2328,19 +2328,19 @@
         <v>172843</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>146731</v>
+        <v>148178</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>199777</v>
+        <v>199883</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0834452108298613</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07083894630403692</v>
+        <v>0.07153744068798534</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09644824035074942</v>
+        <v>0.09649964503045293</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>915389</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>898623</v>
+        <v>895652</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>931920</v>
+        <v>929147</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9368689580438716</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9197086725398438</v>
+        <v>0.9166684082907235</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9537879908233728</v>
+        <v>0.9509498595297248</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>916</v>
@@ -2378,19 +2378,19 @@
         <v>983103</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>963323</v>
+        <v>962092</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1001446</v>
+        <v>1002639</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8984161544404254</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8803404521523746</v>
+        <v>0.8792155497172682</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9151795745546536</v>
+        <v>0.916269230513429</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1785</v>
@@ -2399,19 +2399,19 @@
         <v>1898492</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1871558</v>
+        <v>1871452</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1924604</v>
+        <v>1923157</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9165547891701387</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9035517596492509</v>
+        <v>0.9035003549695471</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9291610536959635</v>
+        <v>0.9284625593120147</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>75554</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58314</v>
+        <v>59563</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94372</v>
+        <v>95190</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08536086881619739</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06588265139571406</v>
+        <v>0.06729409725529455</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1066214093892877</v>
+        <v>0.1075448433935641</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>82</v>
@@ -2524,19 +2524,19 @@
         <v>89672</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>71787</v>
+        <v>71931</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>109499</v>
+        <v>109909</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1023895406396067</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08196716428797531</v>
+        <v>0.08213252578172256</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1250280602830096</v>
+        <v>0.1254966408384329</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>150</v>
@@ -2545,19 +2545,19 @@
         <v>165227</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>142652</v>
+        <v>140599</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>190405</v>
+        <v>190973</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09383014403046575</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08101052329950613</v>
+        <v>0.0798442988665467</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1081289477050632</v>
+        <v>0.1084511912378172</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>809561</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>790743</v>
+        <v>789925</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>826801</v>
+        <v>825552</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9146391311838026</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8933785906107118</v>
+        <v>0.8924551566064354</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9341173486042857</v>
+        <v>0.9327059027447053</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>739</v>
@@ -2595,19 +2595,19 @@
         <v>786124</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>766297</v>
+        <v>765887</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>804009</v>
+        <v>803865</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8976104593603933</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8749719397169895</v>
+        <v>0.8745033591615671</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9180328357120247</v>
+        <v>0.9178674742182775</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1501</v>
@@ -2616,19 +2616,19 @@
         <v>1595684</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1570506</v>
+        <v>1569938</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1618259</v>
+        <v>1620312</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9061698559695343</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8918710522949369</v>
+        <v>0.8915488087621831</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9189894767004939</v>
+        <v>0.9201557011334534</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>56685</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43891</v>
+        <v>42772</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73662</v>
+        <v>73297</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.112688482781055</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08725368127063392</v>
+        <v>0.08502985320273553</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.146438689874653</v>
+        <v>0.1457128248110044</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -2741,19 +2741,19 @@
         <v>51521</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37728</v>
+        <v>38774</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66761</v>
+        <v>67790</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1137988739897717</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08333393874707469</v>
+        <v>0.08564344942132859</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1474603012806196</v>
+        <v>0.1497332881387754</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>95</v>
@@ -2762,19 +2762,19 @@
         <v>108206</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87243</v>
+        <v>88072</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>131149</v>
+        <v>129320</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1132144668512569</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09128138146776449</v>
+        <v>0.09214861818252948</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1372202046139485</v>
+        <v>0.1353064920790184</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>446338</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>429361</v>
+        <v>429726</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>459132</v>
+        <v>460251</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.887311517218945</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8535613101253466</v>
+        <v>0.8542871751889956</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.912746318729366</v>
+        <v>0.9149701467972643</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>368</v>
@@ -2812,19 +2812,19 @@
         <v>401215</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>385975</v>
+        <v>384946</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>415008</v>
+        <v>413962</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8862011260102284</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8525396987193804</v>
+        <v>0.8502667118612246</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9166660612529253</v>
+        <v>0.9143565505786714</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>778</v>
@@ -2833,19 +2833,19 @@
         <v>847552</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>824609</v>
+        <v>826438</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>868515</v>
+        <v>867686</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8867855331487431</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8627797953860515</v>
+        <v>0.8646935079209817</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9087186185322356</v>
+        <v>0.9078513818174705</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>284044</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>254605</v>
+        <v>251378</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>317408</v>
+        <v>315974</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08331811862823325</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07468287490933385</v>
+        <v>0.07373635070812402</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09310486220497696</v>
+        <v>0.0926842241528531</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>323</v>
@@ -2958,19 +2958,19 @@
         <v>353028</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>318338</v>
+        <v>315464</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>393636</v>
+        <v>388690</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09964872327681673</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08985697175602848</v>
+        <v>0.08904568057564848</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1111111728188155</v>
+        <v>0.1097151081904445</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>582</v>
@@ -2979,19 +2979,19 @@
         <v>637071</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>589174</v>
+        <v>588058</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>686744</v>
+        <v>687962</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09164031302807039</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08475041363671396</v>
+        <v>0.08458989898819384</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09878561098366714</v>
+        <v>0.09896081520240778</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3125101</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3091737</v>
+        <v>3093171</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3154540</v>
+        <v>3157767</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9166818813717668</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9068951377950231</v>
+        <v>0.9073157758471468</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9253171250906661</v>
+        <v>0.926263649291876</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2961</v>
@@ -3029,19 +3029,19 @@
         <v>3189694</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3149086</v>
+        <v>3154032</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3224384</v>
+        <v>3227258</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9003512767231833</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8888888271811846</v>
+        <v>0.8902848918095555</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9101430282439715</v>
+        <v>0.9109543194243515</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5895</v>
@@ -3050,19 +3050,19 @@
         <v>6314796</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6265123</v>
+        <v>6263905</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6362693</v>
+        <v>6363809</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9083596869719296</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9012143890163332</v>
+        <v>0.9010391847975923</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9152495863632861</v>
+        <v>0.9154101010118062</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>141832</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>120989</v>
+        <v>119130</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>167210</v>
+        <v>164804</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1257379075630743</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1072597982683095</v>
+        <v>0.1056120189568467</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1482366458817798</v>
+        <v>0.1461032343867847</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>153</v>
@@ -3415,19 +3415,19 @@
         <v>171405</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>148306</v>
+        <v>145817</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>199906</v>
+        <v>197524</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1360830756311462</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1177438941067578</v>
+        <v>0.1157678599571205</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1587109886279484</v>
+        <v>0.1568200990399779</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>287</v>
@@ -3436,19 +3436,19 @@
         <v>313237</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>281128</v>
+        <v>281254</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>347623</v>
+        <v>350410</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1311955206792202</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1177470608393491</v>
+        <v>0.1177999114026837</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1455977300938091</v>
+        <v>0.1467649220263197</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>986165</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>960787</v>
+        <v>963193</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1007008</v>
+        <v>1008867</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8742620924369258</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8517633541182201</v>
+        <v>0.8538967656132151</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8927402017316906</v>
+        <v>0.8943879810431529</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1035</v>
@@ -3486,19 +3486,19 @@
         <v>1088156</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1059655</v>
+        <v>1062037</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1111255</v>
+        <v>1113744</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8639169243688538</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8412890113720516</v>
+        <v>0.8431799009600222</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8822561058932422</v>
+        <v>0.8842321400428796</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1967</v>
@@ -3507,19 +3507,19 @@
         <v>2074321</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2039935</v>
+        <v>2037148</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2106430</v>
+        <v>2106304</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8688044793207799</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8544022699061908</v>
+        <v>0.85323507797368</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8822529391606506</v>
+        <v>0.8822000885973162</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>115635</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>96786</v>
+        <v>96443</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>137355</v>
+        <v>135829</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1272358925834188</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1064960596380918</v>
+        <v>0.1061178205978126</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1511342676865675</v>
+        <v>0.1494554735027551</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>109</v>
@@ -3632,19 +3632,19 @@
         <v>126386</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>106460</v>
+        <v>105910</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>149999</v>
+        <v>148788</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1255732993241401</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1057751099515867</v>
+        <v>0.1052285513836669</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.149034491537043</v>
+        <v>0.1478311903701486</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>220</v>
@@ -3653,19 +3653,19 @@
         <v>242022</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>211183</v>
+        <v>211776</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>270195</v>
+        <v>274433</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1263622127537107</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1102608633701985</v>
+        <v>0.1105704662294496</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1410716420707915</v>
+        <v>0.1432847813432678</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>793190</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>771470</v>
+        <v>772996</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>812039</v>
+        <v>812382</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8727641074165812</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8488657323134325</v>
+        <v>0.8505445264972449</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8935039403619083</v>
+        <v>0.8938821794021875</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>842</v>
@@ -3703,19 +3703,19 @@
         <v>880089</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>856476</v>
+        <v>857687</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>900015</v>
+        <v>900565</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8744267006758599</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8509655084629567</v>
+        <v>0.8521688096298513</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8942248900484132</v>
+        <v>0.8947714486163331</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1612</v>
@@ -3724,19 +3724,19 @@
         <v>1673278</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1645105</v>
+        <v>1640867</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1704117</v>
+        <v>1703524</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8736377872462894</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8589283579292085</v>
+        <v>0.8567152186567322</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8897391366298016</v>
+        <v>0.8894295337705507</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>92461</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74835</v>
+        <v>75551</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112291</v>
+        <v>112633</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1122426036443284</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09084562634863878</v>
+        <v>0.09171463214144836</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1363154541615089</v>
+        <v>0.136730573504394</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -3849,19 +3849,19 @@
         <v>92334</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74151</v>
+        <v>73108</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>113768</v>
+        <v>112596</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1197492150493572</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09616815184858081</v>
+        <v>0.0948155999151061</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1475478768859256</v>
+        <v>0.1460281999033479</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>167</v>
@@ -3870,19 +3870,19 @@
         <v>184795</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>158850</v>
+        <v>160161</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>210604</v>
+        <v>213452</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1158718817452265</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09960407088941496</v>
+        <v>0.1004256925343742</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1320549688592577</v>
+        <v>0.1338408467551137</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>731298</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>711468</v>
+        <v>711126</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>748924</v>
+        <v>748208</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8877573963556716</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.863684545838491</v>
+        <v>0.863269426495606</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9091543736513612</v>
+        <v>0.9082853678585516</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>649</v>
@@ -3920,19 +3920,19 @@
         <v>678725</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>657291</v>
+        <v>658463</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>696908</v>
+        <v>697951</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8802507849506428</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8524521231140745</v>
+        <v>0.8539718000966522</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9038318481514193</v>
+        <v>0.9051844000848939</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1348</v>
@@ -3941,19 +3941,19 @@
         <v>1410023</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1384214</v>
+        <v>1381366</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1435968</v>
+        <v>1434657</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8841281182547734</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8679450311407422</v>
+        <v>0.8661591532448863</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.900395929110585</v>
+        <v>0.8995743074656257</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>73203</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57223</v>
+        <v>58391</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>89422</v>
+        <v>91155</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1444699167805815</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1129324187981023</v>
+        <v>0.115238278000167</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1764780471508642</v>
+        <v>0.1798980492422092</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -4066,19 +4066,19 @@
         <v>75773</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>60494</v>
+        <v>58934</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>95931</v>
+        <v>94187</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1547345406337612</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1235338262820621</v>
+        <v>0.1203476014706018</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1958984464579648</v>
+        <v>0.1923377787466013</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>135</v>
@@ -4087,19 +4087,19 @@
         <v>148976</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>127275</v>
+        <v>126590</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>174088</v>
+        <v>173310</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.149514646783846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1277353626510002</v>
+        <v>0.127047299255221</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1747175480369391</v>
+        <v>0.1739364559057629</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>433498</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>417279</v>
+        <v>415546</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>449478</v>
+        <v>448310</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8555300832194185</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8235219528491359</v>
+        <v>0.8201019507577909</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8870675812018978</v>
+        <v>0.8847617219998329</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>389</v>
@@ -4137,19 +4137,19 @@
         <v>413925</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>393767</v>
+        <v>395511</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>429204</v>
+        <v>430764</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8452654593662388</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8041015535420359</v>
+        <v>0.8076622212533987</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.876466173717938</v>
+        <v>0.8796523985293981</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>791</v>
@@ -4158,19 +4158,19 @@
         <v>847422</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>822310</v>
+        <v>823088</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>869123</v>
+        <v>869808</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8504853532161539</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8252824519630608</v>
+        <v>0.826063544094237</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8722646373489998</v>
+        <v>0.8729527007447786</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>423131</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>385616</v>
+        <v>384023</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>464640</v>
+        <v>465936</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1256595204849624</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1145183425131685</v>
+        <v>0.1140453711168646</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.137986767738607</v>
+        <v>0.1383716347646592</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>407</v>
@@ -4283,19 +4283,19 @@
         <v>465898</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>421418</v>
+        <v>422426</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>509929</v>
+        <v>507575</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1321025123114063</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1194905269088362</v>
+        <v>0.1197762006089383</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1445870957393085</v>
+        <v>0.1439196391561542</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>809</v>
@@ -4304,19 +4304,19 @@
         <v>889029</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>823426</v>
+        <v>835839</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>942846</v>
+        <v>951395</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1289555530372719</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1194396058136985</v>
+        <v>0.1212401364018027</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1367617676548477</v>
+        <v>0.1380018775956103</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2944151</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2902642</v>
+        <v>2901346</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2981666</v>
+        <v>2983259</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8743404795150376</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.862013232261393</v>
+        <v>0.8616283652353408</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8854816574868316</v>
+        <v>0.8859546288831354</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2915</v>
@@ -4354,19 +4354,19 @@
         <v>3060894</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3016863</v>
+        <v>3019217</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3105374</v>
+        <v>3104366</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8678974876885938</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8554129042606914</v>
+        <v>0.8560803608438458</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8805094730911638</v>
+        <v>0.8802237993910617</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5718</v>
@@ -4375,19 +4375,19 @@
         <v>6005046</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5951229</v>
+        <v>5942680</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6070649</v>
+        <v>6058236</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8710444469627281</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8632382323451523</v>
+        <v>0.8619981224043896</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8805603941863015</v>
+        <v>0.8787598635981972</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>125086</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>103315</v>
+        <v>105272</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>147229</v>
+        <v>147664</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.250803985875572</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.207153321980529</v>
+        <v>0.2110755148982663</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2952032654570518</v>
+        <v>0.2960738025678417</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>233</v>
@@ -4740,19 +4740,19 @@
         <v>138993</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>124256</v>
+        <v>120904</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>156484</v>
+        <v>156335</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2228944404112496</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.199262365872675</v>
+        <v>0.1938862655117913</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2509451670079681</v>
+        <v>0.2507062321972018</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>358</v>
@@ -4761,19 +4761,19 @@
         <v>264078</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>237922</v>
+        <v>237146</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>290387</v>
+        <v>292425</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.235296957639709</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.211991330487605</v>
+        <v>0.2113001998276743</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2587377302977486</v>
+        <v>0.2605543968133024</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>373653</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>351510</v>
+        <v>351075</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>395424</v>
+        <v>393467</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.749196014124428</v>
+        <v>0.7491960141244282</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7047967345429488</v>
+        <v>0.7039261974321581</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7928466780194713</v>
+        <v>0.7889244851017336</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>628</v>
@@ -4811,19 +4811,19 @@
         <v>484587</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>467096</v>
+        <v>467245</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>499324</v>
+        <v>502676</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7771055595887504</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7490548329920319</v>
+        <v>0.7492937678027983</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.800737634127325</v>
+        <v>0.8061137344882091</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>958</v>
@@ -4832,19 +4832,19 @@
         <v>858242</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>831933</v>
+        <v>829895</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>884398</v>
+        <v>885174</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7647030423602909</v>
+        <v>0.7647030423602911</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7412622697022515</v>
+        <v>0.7394456031866975</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7880086695123949</v>
+        <v>0.7886998001723258</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>162982</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>140340</v>
+        <v>138937</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>189324</v>
+        <v>189589</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1697485280502098</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1461671323994355</v>
+        <v>0.144705653707551</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1971844705364202</v>
+        <v>0.19745996425131</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>343</v>
@@ -4957,19 +4957,19 @@
         <v>198768</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>178068</v>
+        <v>178116</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>219526</v>
+        <v>219664</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1781318353827335</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1595805146004786</v>
+        <v>0.1596238269072622</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.196734893514187</v>
+        <v>0.1968578448004689</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>522</v>
@@ -4978,19 +4978,19 @@
         <v>361750</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>330456</v>
+        <v>332624</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>392514</v>
+        <v>393650</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1742545833722146</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1591804113080234</v>
+        <v>0.160224777386762</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1890732958009144</v>
+        <v>0.189620910858178</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>797155</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>770813</v>
+        <v>770548</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>819797</v>
+        <v>821200</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8302514719497903</v>
+        <v>0.8302514719497904</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8028155294635798</v>
+        <v>0.8025400357486899</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8538328676005649</v>
+        <v>0.8552943462924489</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1264</v>
@@ -5028,19 +5028,19 @@
         <v>917081</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>896323</v>
+        <v>896185</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>937781</v>
+        <v>937733</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8218681646172664</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8032651064858132</v>
+        <v>0.8031421551995314</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8404194853995213</v>
+        <v>0.8403761730927379</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1995</v>
@@ -5049,19 +5049,19 @@
         <v>1714236</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1683472</v>
+        <v>1682336</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1745530</v>
+        <v>1743362</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8257454166277854</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8109267041990857</v>
+        <v>0.810379089141822</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8408195886919766</v>
+        <v>0.8397752226132381</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>176711</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>152855</v>
+        <v>153925</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>202330</v>
+        <v>202729</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.168862504865946</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1460656979865371</v>
+        <v>0.1470887575099012</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1933437537881937</v>
+        <v>0.1937249700463914</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>272</v>
@@ -5174,19 +5174,19 @@
         <v>156126</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>138344</v>
+        <v>136690</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>173775</v>
+        <v>174145</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1490265559458238</v>
+        <v>0.1490265559458239</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1320531467239679</v>
+        <v>0.1304741289653382</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1658728566717602</v>
+        <v>0.166225490748551</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>468</v>
@@ -5195,19 +5195,19 @@
         <v>332838</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>301912</v>
+        <v>304158</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>365469</v>
+        <v>363572</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.158939025360937</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1441712782496303</v>
+        <v>0.1452439455630302</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1745216275664124</v>
+        <v>0.1736153817851658</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>869768</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>844149</v>
+        <v>843750</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>893624</v>
+        <v>892554</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.831137495134054</v>
+        <v>0.8311374951340541</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8066562462118064</v>
+        <v>0.8062750299536086</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.853934302013463</v>
+        <v>0.852911242490099</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1244</v>
@@ -5245,19 +5245,19 @@
         <v>891516</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>873867</v>
+        <v>873497</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>909298</v>
+        <v>910952</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8509734440541762</v>
+        <v>0.8509734440541763</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8341271433282399</v>
+        <v>0.833774509251449</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.867946853276032</v>
+        <v>0.8695258710346618</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2077</v>
@@ -5266,19 +5266,19 @@
         <v>1761283</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1728652</v>
+        <v>1730549</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1792209</v>
+        <v>1789963</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.841060974639063</v>
+        <v>0.8410609746390632</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.825478372433587</v>
+        <v>0.8263846182148343</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8558287217503696</v>
+        <v>0.8547560544369697</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>182495</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>158912</v>
+        <v>158473</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>208845</v>
+        <v>211745</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1869962089611794</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1628313979851538</v>
+        <v>0.162381322333138</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2139960362991211</v>
+        <v>0.2169675183302026</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>257</v>
@@ -5391,19 +5391,19 @@
         <v>151596</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>133480</v>
+        <v>133240</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>169833</v>
+        <v>170160</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1665259895699385</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1466252461050683</v>
+        <v>0.1463621801065424</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.186558746937729</v>
+        <v>0.1869182419237548</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>442</v>
@@ -5412,19 +5412,19 @@
         <v>334091</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>300885</v>
+        <v>304150</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>368419</v>
+        <v>365172</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1771169656137259</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1595129814431564</v>
+        <v>0.1612436496463121</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1953159703990111</v>
+        <v>0.1935943845106537</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>793434</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>767084</v>
+        <v>764184</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>817017</v>
+        <v>817456</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8130037910388206</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7860039637008789</v>
+        <v>0.7830324816697976</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8371686020148462</v>
+        <v>0.8376186776668619</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1067</v>
@@ -5462,19 +5462,19 @@
         <v>758749</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>740512</v>
+        <v>740185</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>776865</v>
+        <v>777105</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8334740104300616</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8134412530622712</v>
+        <v>0.8130817580762452</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8533747538949317</v>
+        <v>0.8536378198934574</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1829</v>
@@ -5483,19 +5483,19 @@
         <v>1552183</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1517855</v>
+        <v>1521102</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1585389</v>
+        <v>1582124</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8228830343862743</v>
+        <v>0.8228830343862742</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8046840296009892</v>
+        <v>0.8064056154893463</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8404870185568435</v>
+        <v>0.8387563503536879</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>647274</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>599397</v>
+        <v>600059</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>694344</v>
+        <v>693934</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1859295833660652</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1721768646662704</v>
+        <v>0.1723671519653975</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1994504226964752</v>
+        <v>0.1993326839561867</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1105</v>
@@ -5608,19 +5608,19 @@
         <v>645483</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>607065</v>
+        <v>610439</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>681361</v>
+        <v>684927</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1745768808853479</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1641863489911624</v>
+        <v>0.1650988133754556</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1842803209658214</v>
+        <v>0.1852448950897396</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1790</v>
@@ -5629,19 +5629,19 @@
         <v>1292757</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1230049</v>
+        <v>1225516</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1349693</v>
+        <v>1355400</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1800823321704282</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1713469795965707</v>
+        <v>0.1707155615864515</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1880135238147318</v>
+        <v>0.188808529285447</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2834010</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2786940</v>
+        <v>2787350</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2881887</v>
+        <v>2881225</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8140704166339349</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8005495773035249</v>
+        <v>0.8006673160438135</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8278231353337296</v>
+        <v>0.8276328480346025</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4203</v>
@@ -5679,19 +5679,19 @@
         <v>3051933</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3016055</v>
+        <v>3012489</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3090351</v>
+        <v>3086977</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8254231191146519</v>
+        <v>0.825423119114652</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8157196790341785</v>
+        <v>0.8147551049102603</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8358136510088376</v>
+        <v>0.8349011866245442</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6859</v>
@@ -5700,19 +5700,19 @@
         <v>5885944</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5829008</v>
+        <v>5823301</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5948652</v>
+        <v>5953185</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8199176678295718</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8119864761852682</v>
+        <v>0.811191470714553</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8286530204034294</v>
+        <v>0.8292844384135486</v>
       </c>
     </row>
     <row r="18">
